--- a/data/接口自动化测试.xlsx
+++ b/data/接口自动化测试.xlsx
@@ -1222,7 +1222,7 @@
       </c>
       <c r="O2" s="10" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>passone</t>
         </is>
       </c>
     </row>
